--- a/basics-guide/files/device-connection/智能温控测试设备.xlsx
+++ b/basics-guide/files/device-connection/智能温控测试设备.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13005"/>
+    <workbookView windowWidth="21540" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>设备ID</t>
   </si>
@@ -22,22 +22,19 @@
     <t>设备名称</t>
   </si>
   <si>
-    <t>设备型号</t>
-  </si>
-  <si>
     <t>所属机构</t>
   </si>
   <si>
-    <t>描述</t>
+    <t>父设备ID</t>
   </si>
   <si>
-    <t>test0309</t>
+    <t>地理位置</t>
   </si>
   <si>
-    <t>温控测试设备0309</t>
+    <t>test001</t>
   </si>
   <si>
-    <t>智能温控</t>
+    <t>温控设备0309</t>
   </si>
 </sst>
 </file>
@@ -46,11 +43,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -59,35 +56,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,8 +107,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -110,9 +146,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,18 +168,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,77 +206,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,25 +216,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,13 +354,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,49 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,116 +396,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,11 +419,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,201 +507,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1016,39 +983,33 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" ht="36" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
